--- a/School_OM_Resources/dataset/school_mgmt_authentic_datasets.xlsx
+++ b/School_OM_Resources/dataset/school_mgmt_authentic_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Decider OM Resources/dataset2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/School_OM_Resources/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1FEE99-7D37-124A-B967-3FAB2AABE75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB13A91-3C04-1D44-9C00-760ECD8E2FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{4B5CD0E9-7389-934A-B8F8-5EA3DA903C2F}"/>
+    <workbookView xWindow="1480" yWindow="1120" windowWidth="28040" windowHeight="16320" xr2:uid="{4B5CD0E9-7389-934A-B8F8-5EA3DA903C2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
   <si>
     <t>OM_Regular</t>
   </si>
@@ -504,16 +504,33 @@
   </si>
   <si>
     <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class7_name: map_str2 Mapping Strategy of Table class6_name: map_str3 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 Association Strategy for assoc4 : assoc_type2, UUSE OM_name_0 CREATE TABLE `assoc2` ( `c7_at1` c7_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc2_c7_at1_idx` (`c7_at1`) KEY `FK_assoc2_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c7_at1`,`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type `c2_at1` c2_at1_type NOT NULL PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class8_name` ( `c8_at2` c8_at2_type(64), `c8_at1` c8_at1_type(64), `c7_at1` c7_at1_type NOT NULL KEY `FK_class8_name_c7_at1_idx` (`c7_at1`) PRIMARY KEY (`c7_at1`) ); CREATE TABLE `assoc5` ( `c6_at1` c6_at1_type NOT NULL `c1_at1` c1_at1_type NOT NULL KEY `FK_assoc5_c6_at1_idx` (`c6_at1`), KEY `FK_assoc5_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c5_at1`,`c1_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type `c1_at1` c1_at1_type NOT NULL PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class10_name` ( `c10_at1` c10_at1_type `c7_at1` c7_at1_type NOT NULL KEY `FK_class10_name_c7_at1_idx` (`c7_at1`), PRIMARY KEY (`c7_at1`) ); CREATE TABLE `class9_name` ( `c9_at1` c9_at1_type `c7_at1` c7_at1_type NOT NULL PRIMARY KEY (`c7_at1`) ); CREATE TABLE `assoc1` ( `c3_at1` c3_at1_type NOT NULL `c2_at1` c2_at1_type NOT NULL KEY `FK_assoc1_c3_at1_idx` (`c3_at1`), KEY `FK_assoc1_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c3_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class7_name` ( `c7_at1` c7_at1_type NOT NULL PRIMARY KEY (`c7_at1`) ); CREATE TABLE `class6_name` ( `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL PRIMARY KEY (`c3_at1`) ); CREATE TABLE `assoc4` ( `c6_at1` c6_at1_type NOT NULL `c2_at1` c2_at1_type NOT NULL KEY `FK_assoc4_c6_at1_idx` (`c6_at1`) KEY `FK_assoc4_c2_at1_idx` (`c2_at1`) PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `assoc3` ( `c7_at1` c7_at1_type NOT NULL `c6_at1` c6_at1_type NOT NULL KEY `FK_assoc3_c7_at1_idx` (`c7_at1`), KEY `FK_assoc3_c6_at1_idx` (`c6_at1`), PRIMARY KEY (`c7_at1`, `c6_at1`) ); ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class10_name` ADD CONSTRAINT `FK_assoc5_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `class10_name` ADD CONSTRAINT `FK_class10_name_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ,NP</t>
+  </si>
+  <si>
+    <t>module OM_name: 0 open Declaration one sig class1_name extends Class attrSet = c1_at1+c1_at2 id=c1_at1 no parent isAbstract = No } one sig c1_at1 extends c1_at1_type one sig c1_at2 extends c1_at2_type one sig class2_name extends Class attrSet = c2_at1+c2_at2 id=c2_at1 no parent isAbstract = No } one sig c2_at1 extends c2_at1_type one sig c2_at2 extends c2_at2_type one sig class3_name extends Class attrSet = c3_at1+c3_at2 id=c3_at1 no parent isAbstract = No } one sig c3_at1 extends c3_at1_type one sig c3_at2 extends c3_at2_type one sig class4_name extends Class attrSet = c4_at1+c4_at2+c4_at3+c4_at4 id=c4_at1 no parent isAbstract = No } one sig c4_at1 extends c4_at1_type one sig c4_at2 extends c4_at2_type one sig c4_at3 extends c4_at3_type one sig c4_at4 extends c4_at4_type one sig class5_name extends Class attrSet = c5_at1+c5_at2 one parent parent in class4_name id=c4_at1 isAbstract = No } one sig c5_at1 extends c5_at1_type one sig c5_at2 extends c5_at2_type one sig class6_name extends Class attrSet = c6_at1+c6_at2+c6_at3 id=c6_at1 no parent isAbstract = No } one sig c6_at1 extends c6_at1_type one sig c6_at2 extends c6_at2_type one sig c6_at3 extends c6_at3_type one sig assoc1 extends Association src = class6_name dst= class4_name src_multiplicity = src_mlpc2 dst_multiplicity = dst_mlpc } one sig assoc2 extends Association src = class1_name dst= class5_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc3 extends Association src = class4_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } one sig assoc4 extends Association src = class3_name dst = class1_name src_multiplicity = src_mlpc dst_multiplicity = dst_mlpc } pred show run show for 30 ​, Mapping Strategy of Table class4_name: map_str2 Mapping Strategy of Table class5_name: map_str2 Mapping Strategy of Table class7_name: map_str2 Mapping Strategy of Table class8_name: map_str2 Mapping Strategy of Table class6_name: map_str3 Association Strategy for assoc1 : assoc_type2 Association Strategy for assoc2 : assoc_type2 Association Strategy for assoc3 : assoc_type2 Association Strategy for assoc4 : assoc_type2 Association Strategy for assoc4 : assoc_type2, USE OM_name_0 CREATE TABLE `assoc2` ( `c7_at1` c7_at1_type NOT NULL `c4_at1` c4_at1_type NOT NULL KEY `FK_assoc2_c7_at1_idx` (`c7_at1`) KEY `FK_assoc2_c4_at1_idx` (`c4_at1`) PRIMARY KEY (`c7_at1`,`c4_at1`) ); CREATE TABLE `class2_name` ( `c2_at2` c2_at2_type `c2_at1` c2_at1_type NOT NULL PRIMARY KEY (`c2_at1`) ); CREATE TABLE `class8_name` ( `c8_at2` c8_at2_type(64), `c8_at1` c8_at1_type(64), `c7_at1` c7_at1_type NOT NULL KEY `FK_class8_name_c7_at1_idx` (`c7_at1`) PRIMARY KEY (`c7_at1`) ); CREATE TABLE `assoc5` ( `c6_at1` c6_at1_type NOT NULL `c1_at1` c1_at1_type NOT NULL KEY `FK_assoc5_c6_at1_idx` (`c6_at1`), KEY `FK_assoc5_c1_at1_idx` (`c1_at1`), PRIMARY KEY (`c5_at1`,`c1_at1`) ); CREATE TABLE `class1_name` ( `c1_at2` c1_at2_type `c1_at1` c1_at1_type NOT NULL PRIMARY KEY (`c1_at1`) ); CREATE TABLE `class10_name` ( `c10_at1` c10_at1_type `c7_at1` c7_at1_type NOT NULL PRIMARY KEY (`c7_at1`) ); CREATE TABLE `class9_name` ( `c9_at1` c9_at1_type `c7_at1` c7_at1_type NOT NULL KEY `FK_class9_name_c7_at1_idx` (`c7_at1`), PRIMARY KEY (`c7_at1`) ); CREATE TABLE `assoc1` ( `c3_at1` c3_at1_type NOT NULL `c2_at1` c2_at1_type NOT NULL KEY `FK_assoc1_c3_at1_idx` (`c3_at1`), KEY `FK_assoc1_c2_at1_idx` (`c2_at1`), PRIMARY KEY (`c3_at1`,`c2_at1`) ); CREATE TABLE `class4_name` ( `c4_at2` c4_at2_type `c4_at1` c4_at1_type NOT NULL PRIMARY KEY (`c4_at1`) ); CREATE TABLE `class7_name` ( `c7_at1` c7_at1_type NOT NULL PRIMARY KEY (`c7_at1`) ); CREATE TABLE `class6_name` ( `c6_at2` c6_at2_type(64) `c6_at1` c6_at1_type NOT NULL PRIMARY KEY (`c6_at1`) ); CREATE TABLE `class3_name` ( `c3_at2` c3_at2_type(64) `c3_at1` c3_at1_type NOT NULL PRIMARY KEY (`c3_at1`) ); CREATE TABLE `assoc4` ( `c6_at1` c6_at1_type NOT NULL `c2_at1` c2_at1_type NOT NULL KEY `FK_assoc4_c6_at1_idx` (`c6_at1`) KEY `FK_assoc4_c2_at1_idx` (`c2_at1`) PRIMARY KEY (`c6_at1`,`c2_at1`) ); CREATE TABLE `assoc3` ( `c7_at1` c7_at1_type NOT NULL `c6_at1` c6_at1_type NOT NULL KEY `FK_assoc3_c7_at1_idx` (`c7_at1`), KEY `FK_assoc3_c6_at1_idx` (`c6_at1`), PRIMARY KEY (`c7_at1`, `c6_at1`) ); ALTER TABLE `assoc2` ADD CONSTRAINT `FK_assoc2_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc2_c4_at1` FOREIGN KEY (`c4_at1`) REFERENCES `class4_name` (`c4_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `class8_name` ADD CONSTRAINT `FK_class8_name_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE; ALTER TABLE `class10_name` ADD CONSTRAINT `FK_assoc5_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc5_c6_at1` FOREIGN KEY (`c1_at1`) REFERENCES `class1_name` (`c1_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `class9_name` ADD CONSTRAINT `FK_class9_name_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `assoc1` ADD CONSTRAINT `FK_assoc1_c3_at1` FOREIGN KEY (`c3_at1`) REFERENCES `class3_name` (`c3_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc1_c3_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `assoc4` ADD CONSTRAINT `FK_assoc4_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc4_c2_at1` FOREIGN KEY (`c2_at1`) REFERENCES `class2_name` (`c2_at1`) ON DELETE CASCADE ON UPDATE CASCADE ALTER TABLE `assoc3` ADD CONSTRAINT `FK_assoc3_c7_at1` FOREIGN KEY (`c7_at1`) REFERENCES `class7_name` (`c7_at1`) ON DELETE CASCADE ON UPDATE CASCADE ADD CONSTRAINT `FK_assoc3_c6_at1` FOREIGN KEY (`c6_at1`) REFERENCES `class6_name` (`c6_at1`) ON DELETE CASCADE ON UPDATE CASCADE ​,NP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -539,8 +556,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +877,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A76" sqref="A76:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,642 +895,642 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B79" t="s">
-        <v>151</v>
+      <c r="B79" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>155</v>
       </c>
     </row>
